--- a/data/TC003.xlsx
+++ b/data/TC003.xlsx
@@ -39,7 +39,7 @@
     <t>tester</t>
   </si>
   <si>
-    <t>babu2@testleaf.com</t>
+    <t>babu3@testleaf.com</t>
   </si>
 </sst>
 </file>
